--- a/data/trans_orig/Q02D_R2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q02D_R2-Provincia-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4224</v>
+        <v>5110</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01441725887382114</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06758128245482492</v>
+        <v>0.08175325573781934</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5090</v>
+        <v>6548</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01029567435894739</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04884836938838548</v>
+        <v>0.06283671553314853</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6674</v>
+        <v>6260</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01184098139932641</v>
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04003510109562511</v>
+        <v>0.03755177807875242</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>3746</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>970</v>
+        <v>942</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>8993</v>
+        <v>8636</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05992310379163117</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01552602719706728</v>
+        <v>0.01506703428635252</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1438694990690088</v>
+        <v>0.1381676268463963</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>7</v>
@@ -836,19 +836,19 @@
         <v>8432</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3476</v>
+        <v>4021</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>16511</v>
+        <v>16200</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.08091262110908487</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03335504815140049</v>
+        <v>0.03858991455932997</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1584415211761214</v>
+        <v>0.1554586815470256</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>11</v>
@@ -857,19 +857,19 @@
         <v>12177</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>6400</v>
+        <v>6403</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>20952</v>
+        <v>21119</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.07304301446441509</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03838995364637289</v>
+        <v>0.03840527837757936</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1256758536426016</v>
+        <v>0.1266798533361035</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>57859</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>52731</v>
+        <v>52843</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>60667</v>
+        <v>60745</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9256596373345477</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.8436094752351795</v>
+        <v>0.8454017366310991</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9705857159028379</v>
+        <v>0.9718250769560157</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>85</v>
@@ -907,19 +907,19 @@
         <v>94703</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>86858</v>
+        <v>86136</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>99845</v>
+        <v>99521</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9087917045319678</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.8335067858810808</v>
+        <v>0.8265786380900355</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9581331420966306</v>
+        <v>0.9550256382147625</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>142</v>
@@ -928,19 +928,19 @@
         <v>152563</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>143946</v>
+        <v>144011</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>158646</v>
+        <v>159111</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9151160041362585</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.8634300765007636</v>
+        <v>0.8638192988215978</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9516066935938383</v>
+        <v>0.9543972180651685</v>
       </c>
     </row>
     <row r="7">
@@ -1035,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>7179</v>
+        <v>7020</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.0290404478440716</v>
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1039052807314792</v>
+        <v>0.1015962378669242</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>9</v>
@@ -1053,19 +1053,19 @@
         <v>8733</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>4103</v>
+        <v>3832</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>16032</v>
+        <v>15675</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.06523507456019931</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.03064960783261823</v>
+        <v>0.02862197070659182</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1197648444715943</v>
+        <v>0.1170923933199671</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>11</v>
@@ -1074,19 +1074,19 @@
         <v>10739</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>5859</v>
+        <v>5537</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>17725</v>
+        <v>18595</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.05291309161040467</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02886839646553475</v>
+        <v>0.02728054153790698</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.08732989177906951</v>
+        <v>0.09161862332840548</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>8834</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4663</v>
+        <v>3931</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>15508</v>
+        <v>15316</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1278458310459474</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.06748106872564207</v>
+        <v>0.056893167416169</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2244421236085078</v>
+        <v>0.2216722397171407</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>41</v>
@@ -1124,19 +1124,19 @@
         <v>42860</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>32455</v>
+        <v>31567</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>54625</v>
+        <v>54154</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3201679149641324</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2424414579006575</v>
+        <v>0.2358112359653642</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4080565941249774</v>
+        <v>0.4045356761403348</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>50</v>
@@ -1145,19 +1145,19 @@
         <v>51693</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>40013</v>
+        <v>40826</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>65459</v>
+        <v>64726</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2546943998621543</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.197147857891063</v>
+        <v>0.2011516844023779</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3225195465096928</v>
+        <v>0.3189074528740364</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>58255</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>51250</v>
+        <v>51025</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>63299</v>
+        <v>63490</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8431137211099811</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7417379851282172</v>
+        <v>0.7384810010191029</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9161187526892731</v>
+        <v>0.9188849868555532</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>81</v>
@@ -1195,19 +1195,19 @@
         <v>82274</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>70748</v>
+        <v>70608</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>93507</v>
+        <v>93594</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6145970104756683</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5284972615613615</v>
+        <v>0.5274550026669</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6985129058073296</v>
+        <v>0.6991654657660872</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>135</v>
@@ -1216,19 +1216,19 @@
         <v>140529</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>127129</v>
+        <v>126113</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>153458</v>
+        <v>152231</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6923925085274411</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6263723435958645</v>
+        <v>0.6213676092167519</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7560981029501477</v>
+        <v>0.7500501513212472</v>
       </c>
     </row>
     <row r="11">
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>6327</v>
+        <v>6430</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01816804831750219</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.06014969881973826</v>
+        <v>0.06112671626818819</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>6190</v>
+        <v>6008</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01092616865612832</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03538682421344785</v>
+        <v>0.03434791651820413</v>
       </c>
     </row>
     <row r="13">
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8215</v>
+        <v>7234</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02613728342145081</v>
@@ -1395,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.11782331857515</v>
+        <v>0.1037587611242447</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>6</v>
@@ -1407,16 +1407,16 @@
         <v>2029</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>12005</v>
+        <v>11913</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05675236503081381</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01928443225497841</v>
+        <v>0.01928548768806628</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1141279542942554</v>
+        <v>0.1132493589295979</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>7</v>
@@ -1425,19 +1425,19 @@
         <v>7792</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3002</v>
+        <v>3708</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>14994</v>
+        <v>14744</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04454903240181799</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01716341503613931</v>
+        <v>0.02119737366846787</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08572300447279128</v>
+        <v>0.08429234604314953</v>
       </c>
     </row>
     <row r="14">
@@ -1454,7 +1454,7 @@
         <v>67899</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>61506</v>
+        <v>62487</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>69721</v>
@@ -1463,7 +1463,7 @@
         <v>0.9738627165785492</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8821766814248494</v>
+        <v>0.8962412388757554</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -1475,19 +1475,19 @@
         <v>97310</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>90455</v>
+        <v>91307</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>101355</v>
+        <v>101348</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.925079586651684</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8599128119496868</v>
+        <v>0.8680102710275215</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9635284438332721</v>
+        <v>0.9634630087139591</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>163</v>
@@ -1496,19 +1496,19 @@
         <v>165208</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>157814</v>
+        <v>158348</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>170869</v>
+        <v>170180</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9445247989420537</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9022545004052767</v>
+        <v>0.9053057313079098</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9768930884222317</v>
+        <v>0.97295181729187</v>
       </c>
     </row>
     <row r="15">
@@ -1616,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7769</v>
+        <v>7413</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02039041306207519</v>
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06654874054918104</v>
+        <v>0.0634998002696375</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2</v>
@@ -1637,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>9619</v>
+        <v>8376</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01186991789197844</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04796438496945706</v>
+        <v>0.04176396917078173</v>
       </c>
     </row>
     <row r="17">
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>4820</v>
+        <v>5161</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01156833309161047</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.05751609559193729</v>
+        <v>0.06158423379506025</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>7</v>
@@ -1684,19 +1684,19 @@
         <v>7709</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3497</v>
+        <v>3268</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>14409</v>
+        <v>15084</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.06603305573309638</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02994954276775712</v>
+        <v>0.02799611850941426</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1234161928430442</v>
+        <v>0.12920256040026</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8</v>
@@ -1705,19 +1705,19 @@
         <v>8679</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4336</v>
+        <v>3921</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>16116</v>
+        <v>17009</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04327400691958449</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02161990746064709</v>
+        <v>0.0195495927582641</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.08035795724523823</v>
+        <v>0.08480955119986125</v>
       </c>
     </row>
     <row r="18">
@@ -1734,7 +1734,7 @@
         <v>82835</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>78984</v>
+        <v>78643</v>
       </c>
       <c r="F18" s="5" t="n">
         <v>83804</v>
@@ -1743,7 +1743,7 @@
         <v>0.9884316669083896</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9424839044080644</v>
+        <v>0.9384157662049393</v>
       </c>
       <c r="I18" s="6" t="n">
         <v>1</v>
@@ -1755,19 +1755,19 @@
         <v>106658</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>99321</v>
+        <v>98797</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>111415</v>
+        <v>112037</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.9135765312048284</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.8507306339733932</v>
+        <v>0.8462444422788994</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.9543183969738801</v>
+        <v>0.9596440038663848</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>193</v>
@@ -1776,19 +1776,19 @@
         <v>189493</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>181425</v>
+        <v>181023</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>194926</v>
+        <v>195093</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.9448560751884371</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.9046295725708503</v>
+        <v>0.9026255121770114</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.9719486789911163</v>
+        <v>0.9727806671283327</v>
       </c>
     </row>
     <row r="19">
@@ -1883,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>4102</v>
+        <v>4597</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02888427652310088</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.132352248739582</v>
+        <v>0.1483242186246792</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>5</v>
@@ -1901,19 +1901,19 @@
         <v>4852</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1888</v>
+        <v>1849</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>10060</v>
+        <v>10498</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0916233214864302</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.03565870521490659</v>
+        <v>0.03491831448341354</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1899670689548811</v>
+        <v>0.1982330220963676</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>6</v>
@@ -1922,19 +1922,19 @@
         <v>5747</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1989</v>
+        <v>2063</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>11600</v>
+        <v>11581</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.06846234451396291</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.02369483718008231</v>
+        <v>0.0245749547526819</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1381813713371264</v>
+        <v>0.1379532086014268</v>
       </c>
     </row>
     <row r="21">
@@ -1951,19 +1951,19 @@
         <v>4340</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1545</v>
+        <v>1688</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>10174</v>
+        <v>10406</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1400607504583803</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.04983999179452343</v>
+        <v>0.05447784954663169</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3282844664302542</v>
+        <v>0.3357763969213262</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>10</v>
@@ -1972,19 +1972,19 @@
         <v>10458</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>5354</v>
+        <v>5238</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>16751</v>
+        <v>17028</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1974845500017892</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.10110488556804</v>
+        <v>0.09891142768808485</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3163117088693672</v>
+        <v>0.3215508709573368</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>14</v>
@@ -1993,19 +1993,19 @@
         <v>14798</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>8886</v>
+        <v>8563</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>23265</v>
+        <v>22358</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1762857686101718</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1058549428029777</v>
+        <v>0.1020079686637708</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2771371489672276</v>
+        <v>0.266335595355543</v>
       </c>
     </row>
     <row r="22">
@@ -2022,19 +2022,19 @@
         <v>25754</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>20355</v>
+        <v>19754</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>29089</v>
+        <v>29129</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8310549730185188</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6568338883065188</v>
+        <v>0.6374379984187238</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.938660197603384</v>
+        <v>0.939947480730813</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>36</v>
@@ -2043,19 +2043,19 @@
         <v>37646</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>30918</v>
+        <v>30991</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>43659</v>
+        <v>43937</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7108921285117806</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5838411782609032</v>
+        <v>0.5852232871948602</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8244342415761408</v>
+        <v>0.8296856030709445</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>62</v>
@@ -2064,19 +2064,19 @@
         <v>63400</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>54379</v>
+        <v>54410</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>70259</v>
+        <v>70373</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7552518868758653</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6477857058916422</v>
+        <v>0.6481512214582249</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8369552190613075</v>
+        <v>0.8383119788127282</v>
       </c>
     </row>
     <row r="23">
@@ -2181,19 +2181,19 @@
         <v>3741</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1031</v>
+        <v>1012</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>11062</v>
+        <v>9999</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.05401503888214366</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01488091532229575</v>
+        <v>0.0146152012107629</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1597127933567455</v>
+        <v>0.144362552942409</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>3</v>
@@ -2202,19 +2202,19 @@
         <v>3741</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>10166</v>
+        <v>10205</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02881926140272591</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.007925042067833862</v>
+        <v>0.007895429183275422</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.07831359297031176</v>
+        <v>0.078609639737644</v>
       </c>
     </row>
     <row r="25">
@@ -2244,19 +2244,19 @@
         <v>10104</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>4670</v>
+        <v>5252</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>17581</v>
+        <v>17636</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1458761467282507</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.067429237531286</v>
+        <v>0.07583278732096652</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2538351059195385</v>
+        <v>0.2546274730114114</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>9</v>
@@ -2265,19 +2265,19 @@
         <v>10104</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>4805</v>
+        <v>5007</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>17965</v>
+        <v>18744</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.07783096878180037</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03701196214309053</v>
+        <v>0.03857233147581939</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1383922933682285</v>
+        <v>0.1443942977318575</v>
       </c>
     </row>
     <row r="26">
@@ -2307,19 +2307,19 @@
         <v>55416</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>47507</v>
+        <v>47470</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>61845</v>
+        <v>60877</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8001088143896057</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6859131954445925</v>
+        <v>0.6853778981779797</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8929203675967357</v>
+        <v>0.8789551845317654</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>112</v>
@@ -2328,19 +2328,19 @@
         <v>115969</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>106991</v>
+        <v>105499</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>121963</v>
+        <v>121947</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8933497698154738</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8241885777655431</v>
+        <v>0.8126911316998771</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9395191953760894</v>
+        <v>0.9394007630854266</v>
       </c>
     </row>
     <row r="27">
@@ -2435,7 +2435,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>8490</v>
+        <v>7573</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01376881274974617</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.07740489725234019</v>
+        <v>0.06903898781732028</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>5</v>
@@ -2453,19 +2453,19 @@
         <v>6796</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2333</v>
+        <v>2378</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>15216</v>
+        <v>14708</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.03081614858570962</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01057775364966274</v>
+        <v>0.01078288883513855</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.06899398918896353</v>
+        <v>0.0666937467554337</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>6</v>
@@ -2474,19 +2474,19 @@
         <v>8306</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3173</v>
+        <v>3184</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>17950</v>
+        <v>19255</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02515369565110699</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.009608857395268452</v>
+        <v>0.009641970608401974</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.05435612067572237</v>
+        <v>0.05830979398931363</v>
       </c>
     </row>
     <row r="29">
@@ -2503,19 +2503,19 @@
         <v>2654</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>846</v>
+        <v>854</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>7091</v>
+        <v>7022</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.02420049083597937</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.007712514128455966</v>
+        <v>0.007789442052943829</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.06464799802642796</v>
+        <v>0.0640219999349004</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>13</v>
@@ -2524,19 +2524,19 @@
         <v>13406</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>7771</v>
+        <v>7317</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>21937</v>
+        <v>22807</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.06078746082388529</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.0352360813027001</v>
+        <v>0.0331775271412879</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.09947148834450889</v>
+        <v>0.1034155193496382</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>16</v>
@@ -2545,19 +2545,19 @@
         <v>16060</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>9825</v>
+        <v>9595</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>24905</v>
+        <v>24886</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.04863471170403858</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02975248815430282</v>
+        <v>0.02905705864045423</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.07542068489171665</v>
+        <v>0.07536228379875601</v>
       </c>
     </row>
     <row r="30">
@@ -2574,19 +2574,19 @@
         <v>105521</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>98475</v>
+        <v>99759</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>108778</v>
+        <v>108765</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.9620306964142744</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.8977857611623469</v>
+        <v>0.9094998930828326</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9917178893089753</v>
+        <v>0.991603146521419</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>194</v>
@@ -2595,19 +2595,19 @@
         <v>200333</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>189170</v>
+        <v>189450</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>207510</v>
+        <v>208220</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.9083963905904051</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.8577786958100775</v>
+        <v>0.8590466957269612</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.9409391027065354</v>
+        <v>0.9441586344259993</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>294</v>
@@ -2616,19 +2616,19 @@
         <v>305855</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>293375</v>
+        <v>295049</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>313849</v>
+        <v>314754</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.9262115926448544</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.8884196552790724</v>
+        <v>0.8934886888700376</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9504196907248285</v>
+        <v>0.9531630526801369</v>
       </c>
     </row>
     <row r="31">
@@ -2720,19 +2720,19 @@
         <v>5260</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2015</v>
+        <v>1816</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>11836</v>
+        <v>10927</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.03888326933320853</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01489360784111993</v>
+        <v>0.01342499335539957</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.0875013328602498</v>
+        <v>0.0807780224927291</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>18</v>
@@ -2741,19 +2741,19 @@
         <v>20470</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>12362</v>
+        <v>12576</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>31103</v>
+        <v>31465</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1052988366228469</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.06359354593832366</v>
+        <v>0.06468989119080831</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1599951471264867</v>
+        <v>0.1618589039107088</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>23</v>
@@ -2762,19 +2762,19 @@
         <v>25729</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>17525</v>
+        <v>16818</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>37951</v>
+        <v>37488</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.07804741289663127</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.05316096297256189</v>
+        <v>0.05101508687870455</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1151187307800657</v>
+        <v>0.1137146760004123</v>
       </c>
     </row>
     <row r="33">
@@ -2791,19 +2791,19 @@
         <v>20230</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>12382</v>
+        <v>12297</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>29648</v>
+        <v>30463</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.149553018284077</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.09153583905322217</v>
+        <v>0.09090814552436338</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.219180984822595</v>
+        <v>0.2252030244621963</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>47</v>
@@ -2812,19 +2812,19 @@
         <v>51313</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>39787</v>
+        <v>39479</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>64195</v>
+        <v>65492</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.2639587009901354</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.2046702218983175</v>
+        <v>0.2030850493983952</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.3302252963312877</v>
+        <v>0.3369002496158572</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>65</v>
@@ -2833,19 +2833,19 @@
         <v>71542</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>58327</v>
+        <v>57791</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>88799</v>
+        <v>87988</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.2170161261791215</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.1769274812403225</v>
+        <v>0.1753037614943916</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.2693614887541478</v>
+        <v>0.2669021578151999</v>
       </c>
     </row>
     <row r="34">
@@ -2862,19 +2862,19 @@
         <v>109778</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>99189</v>
+        <v>99224</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>117675</v>
+        <v>118441</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.8115637123827145</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.7332815180124925</v>
+        <v>0.7335454339481846</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.8699434546871414</v>
+        <v>0.8756121883385851</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>116</v>
@@ -2883,19 +2883,19 @@
         <v>122614</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>110074</v>
+        <v>109111</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>135583</v>
+        <v>136472</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.6307424623870178</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.5662342830892902</v>
+        <v>0.561279864258993</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.6974540741800946</v>
+        <v>0.7020249309917226</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>221</v>
@@ -2904,19 +2904,19 @@
         <v>232392</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>214529</v>
+        <v>212706</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>248270</v>
+        <v>246833</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.7049364609242472</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.6507518147085047</v>
+        <v>0.6452217570418618</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.7530990027437883</v>
+        <v>0.7487408962100187</v>
       </c>
     </row>
     <row r="35">
@@ -3008,19 +3008,19 @@
         <v>10573</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>5375</v>
+        <v>5340</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>19073</v>
+        <v>18934</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.01700825399198888</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.008646045663105962</v>
+        <v>0.008590296928139561</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.03068279950719993</v>
+        <v>0.03045944287669898</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>45</v>
@@ -3029,19 +3029,19 @@
         <v>49956</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>36612</v>
+        <v>37910</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>65746</v>
+        <v>64738</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.05009847472234107</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.03671637061760159</v>
+        <v>0.0380175555272225</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.06593263629744277</v>
+        <v>0.06492209774478441</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>55</v>
@@ -3050,19 +3050,19 @@
         <v>60529</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>44682</v>
+        <v>45525</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>77488</v>
+        <v>77996</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.03739164064101837</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.02760230341380234</v>
+        <v>0.02812298885809222</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.04786814145442439</v>
+        <v>0.04818209306034788</v>
       </c>
     </row>
     <row r="37">
@@ -3079,19 +3079,19 @@
         <v>42595</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>31717</v>
+        <v>31190</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>57844</v>
+        <v>57582</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.06852289849745966</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.0510237497569116</v>
+        <v>0.05017449916687127</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.09305364422752574</v>
+        <v>0.09263241913508159</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>140</v>
@@ -3100,19 +3100,19 @@
         <v>150251</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>129686</v>
+        <v>129466</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>174801</v>
+        <v>173574</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1506781460756626</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1300549322742648</v>
+        <v>0.1298340025070558</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1752981302185422</v>
+        <v>0.174068368478912</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>180</v>
@@ -3121,19 +3121,19 @@
         <v>192846</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>166544</v>
+        <v>166774</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>220264</v>
+        <v>221044</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1191300609663765</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1028824177181045</v>
+        <v>0.1030241749191223</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1360673038045701</v>
+        <v>0.1365496950315941</v>
       </c>
     </row>
     <row r="38">
@@ -3150,19 +3150,19 @@
         <v>568454</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>552346</v>
+        <v>552485</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>581075</v>
+        <v>580449</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.9144688475105515</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.8885567094124864</v>
+        <v>0.8887790665100262</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.9347716174885692</v>
+        <v>0.933764860218686</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>773</v>
@@ -3171,19 +3171,19 @@
         <v>796955</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>770165</v>
+        <v>770911</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>819567</v>
+        <v>821498</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.7992233792019963</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.7723568543905481</v>
+        <v>0.7731053555151441</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.8218999061915163</v>
+        <v>0.8238365066312404</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1322</v>
@@ -3192,19 +3192,19 @@
         <v>1365409</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1336171</v>
+        <v>1332417</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1395624</v>
+        <v>1393957</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.8434782983926051</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.8254163907998381</v>
+        <v>0.8230971703339086</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.8621437200701898</v>
+        <v>0.8611137763232748</v>
       </c>
     </row>
     <row r="39">
@@ -3587,19 +3587,19 @@
         <v>25162</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>17811</v>
+        <v>16805</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>34258</v>
+        <v>34667</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2899187987493228</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.205218660271538</v>
+        <v>0.1936316481042902</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3947319719954122</v>
+        <v>0.3994372882599819</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>54</v>
@@ -3608,19 +3608,19 @@
         <v>61230</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>49652</v>
+        <v>49683</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>73723</v>
+        <v>74226</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4418494822112302</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3582956647878605</v>
+        <v>0.3585195483542693</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5319972335487496</v>
+        <v>0.5356323678000896</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>77</v>
@@ -3629,19 +3629,19 @@
         <v>86392</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>72427</v>
+        <v>71661</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>103348</v>
+        <v>103575</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3833406280135181</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.321376981429965</v>
+        <v>0.3179780803342309</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4585765608387145</v>
+        <v>0.4595843574421717</v>
       </c>
     </row>
     <row r="6">
@@ -3658,19 +3658,19 @@
         <v>61627</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>52531</v>
+        <v>52122</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>68978</v>
+        <v>69984</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.7100812012506772</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.605268028004588</v>
+        <v>0.600562711740018</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.794781339728462</v>
+        <v>0.8063683518957095</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>69</v>
@@ -3679,19 +3679,19 @@
         <v>77347</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>64854</v>
+        <v>64351</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>88925</v>
+        <v>88894</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.5581505177887698</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4680027664512504</v>
+        <v>0.4643676321999105</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6417043352121395</v>
+        <v>0.6414804516457308</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>128</v>
@@ -3700,19 +3700,19 @@
         <v>138974</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>122018</v>
+        <v>121791</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>152939</v>
+        <v>153705</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.6166593719864819</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5414234391612858</v>
+        <v>0.5404156425578284</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6786230185700352</v>
+        <v>0.6820219196657692</v>
       </c>
     </row>
     <row r="7">
@@ -3851,19 +3851,19 @@
         <v>39190</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>29350</v>
+        <v>29707</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>49826</v>
+        <v>50199</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3028377645590222</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2268022569065343</v>
+        <v>0.2295541440939564</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3850218344058678</v>
+        <v>0.3879088682928825</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>66</v>
@@ -3872,19 +3872,19 @@
         <v>72586</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>58824</v>
+        <v>57699</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>87694</v>
+        <v>87148</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3469478471036444</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2811651693954406</v>
+        <v>0.2757870105359595</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4191616407805099</v>
+        <v>0.4165486604237126</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>106</v>
@@ -3893,19 +3893,19 @@
         <v>111777</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>93772</v>
+        <v>95735</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>130476</v>
+        <v>129943</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.330090553387441</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2769192648365494</v>
+        <v>0.2827168677843788</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3853136392815433</v>
+        <v>0.3837394729010462</v>
       </c>
     </row>
     <row r="10">
@@ -3922,19 +3922,19 @@
         <v>90220</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>79584</v>
+        <v>79211</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>100060</v>
+        <v>99703</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6971622354409778</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6149781655941321</v>
+        <v>0.6120911317071176</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7731977430934657</v>
+        <v>0.7704458559060435</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>127</v>
@@ -3943,19 +3943,19 @@
         <v>136628</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>121520</v>
+        <v>122066</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>150390</v>
+        <v>151515</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6530521528963557</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5808383592194901</v>
+        <v>0.5834513395762874</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7188348306045594</v>
+        <v>0.7242129894640404</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>215</v>
@@ -3964,19 +3964,19 @@
         <v>226847</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>208148</v>
+        <v>208681</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>244852</v>
+        <v>242889</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.669909446612559</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6146863607184562</v>
+        <v>0.6162605270989538</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7230807351634506</v>
+        <v>0.7172831322156216</v>
       </c>
     </row>
     <row r="11">
@@ -4115,19 +4115,19 @@
         <v>3815</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>936</v>
+        <v>919</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>11640</v>
+        <v>10286</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0399634110926633</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.009805513381501518</v>
+        <v>0.00963098595759908</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1219203490502161</v>
+        <v>0.1077357508953757</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>12</v>
@@ -4136,19 +4136,19 @@
         <v>12118</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6902</v>
+        <v>6883</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>19743</v>
+        <v>19547</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08669753359919732</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04937705797593613</v>
+        <v>0.04923954514537413</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1412467728010549</v>
+        <v>0.1398440312881808</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>15</v>
@@ -4157,19 +4157,19 @@
         <v>15934</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>9272</v>
+        <v>9476</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>24705</v>
+        <v>27182</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06773158626490379</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03941233743188901</v>
+        <v>0.04028250548857017</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1050146625555878</v>
+        <v>0.1155456847901614</v>
       </c>
     </row>
     <row r="14">
@@ -4186,19 +4186,19 @@
         <v>91655</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>83830</v>
+        <v>85184</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>94534</v>
+        <v>94551</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9600365889073367</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8780796509497837</v>
+        <v>0.8922642491046244</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9901944866184985</v>
+        <v>0.990369014042401</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>115</v>
@@ -4207,19 +4207,19 @@
         <v>127661</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>120036</v>
+        <v>120232</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>132877</v>
+        <v>132896</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9133024664008027</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.858753227198945</v>
+        <v>0.8601559687118193</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9506229420240638</v>
+        <v>0.9507604548546261</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>206</v>
@@ -4228,19 +4228,19 @@
         <v>219315</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>210544</v>
+        <v>208067</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>225977</v>
+        <v>225773</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9322684137350962</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8949853374444123</v>
+        <v>0.8844543152098386</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.960587662568111</v>
+        <v>0.95971749451143</v>
       </c>
     </row>
     <row r="15">
@@ -4348,7 +4348,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>9219</v>
+        <v>9101</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01052708973939449</v>
@@ -4357,7 +4357,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05200425444522101</v>
+        <v>0.05133641307519371</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1</v>
@@ -4369,7 +4369,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>9322</v>
+        <v>9341</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.006633815611277675</v>
@@ -4378,7 +4378,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03313508075459332</v>
+        <v>0.03320440997781968</v>
       </c>
     </row>
     <row r="17">
@@ -4395,19 +4395,19 @@
         <v>17783</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>10531</v>
+        <v>11002</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>25969</v>
+        <v>27068</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1709131644895261</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1012189541204053</v>
+        <v>0.1057458433363173</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2495944006430608</v>
+        <v>0.2601535980151242</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>62</v>
@@ -4416,19 +4416,19 @@
         <v>66835</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>54433</v>
+        <v>53805</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>81184</v>
+        <v>78907</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3769935944724199</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3070406888282718</v>
+        <v>0.3034955674226957</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4579343297458704</v>
+        <v>0.4450893885055349</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>78</v>
@@ -4437,19 +4437,19 @@
         <v>84617</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>70107</v>
+        <v>70396</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>101903</v>
+        <v>102609</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3007780756323821</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2492016589150368</v>
+        <v>0.2502276919459451</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3622222383436111</v>
+        <v>0.3647304535074926</v>
       </c>
     </row>
     <row r="18">
@@ -4466,19 +4466,19 @@
         <v>86262</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>78076</v>
+        <v>76977</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>93514</v>
+        <v>93043</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.8290868355104739</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7504055993569397</v>
+        <v>0.7398464019848758</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8987810458795948</v>
+        <v>0.8942541566636827</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>104</v>
@@ -4487,19 +4487,19 @@
         <v>108582</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>94322</v>
+        <v>96148</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>120936</v>
+        <v>121501</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.6124793157881856</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.5320394353877758</v>
+        <v>0.542339578382305</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.6821619160252705</v>
+        <v>0.6853478187165301</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>183</v>
@@ -4508,19 +4508,19 @@
         <v>194844</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>177662</v>
+        <v>178161</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>209344</v>
+        <v>210318</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.6925881087563402</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.6315105786580293</v>
+        <v>0.6332868453576297</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.7441271871960017</v>
+        <v>0.747588602828796</v>
       </c>
     </row>
     <row r="19">
@@ -4615,7 +4615,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5236</v>
+        <v>5015</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01559751408648033</v>
@@ -4624,7 +4624,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.09531444141480108</v>
+        <v>0.09128807513955427</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>0</v>
@@ -4649,7 +4649,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>4823</v>
+        <v>3495</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.005856034388434416</v>
@@ -4658,7 +4658,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03296029566709113</v>
+        <v>0.02388307675090222</v>
       </c>
     </row>
     <row r="21">
@@ -4675,19 +4675,19 @@
         <v>6823</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2885</v>
+        <v>3056</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>13286</v>
+        <v>12818</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1242071717556209</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.05251990652410522</v>
+        <v>0.05563695989690556</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2418465381266796</v>
+        <v>0.2333261440515137</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>19</v>
@@ -4696,19 +4696,19 @@
         <v>19807</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>12915</v>
+        <v>12642</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>29577</v>
+        <v>29183</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2167503887361655</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1413295092557987</v>
+        <v>0.1383381648831214</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3236555662593694</v>
+        <v>0.3193487852755367</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>26</v>
@@ -4717,19 +4717,19 @@
         <v>26631</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>18039</v>
+        <v>18640</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>37834</v>
+        <v>37379</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1820053480809909</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1232884615548852</v>
+        <v>0.127392865177112</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2585770845730604</v>
+        <v>0.255461507184132</v>
       </c>
     </row>
     <row r="22">
@@ -4746,19 +4746,19 @@
         <v>47255</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>40475</v>
+        <v>40613</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>51454</v>
+        <v>51048</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8601953141578988</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7367822918824261</v>
+        <v>0.739298746103784</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.936625696637299</v>
+        <v>0.9292433881606018</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>68</v>
@@ -4767,19 +4767,19 @@
         <v>71576</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>61806</v>
+        <v>62200</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>78468</v>
+        <v>78741</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7832496112638345</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6763444337406307</v>
+        <v>0.6806512147244631</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8586704907442014</v>
+        <v>0.8616618351168785</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>111</v>
@@ -4788,19 +4788,19 @@
         <v>118830</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>107772</v>
+        <v>108143</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>127459</v>
+        <v>127219</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8121386175305747</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7365578122224026</v>
+        <v>0.7390923614322608</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8711088012803297</v>
+        <v>0.8694704344907505</v>
       </c>
     </row>
     <row r="23">
@@ -4942,7 +4942,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>4846</v>
+        <v>4714</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01163670819201074</v>
@@ -4951,7 +4951,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05982159267401134</v>
+        <v>0.0581939542449222</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>8</v>
@@ -4960,19 +4960,19 @@
         <v>7873</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>3021</v>
+        <v>3032</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>13947</v>
+        <v>14797</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07079922062403869</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02716458873197863</v>
+        <v>0.02726541509356175</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1254184923208859</v>
+        <v>0.1330577680215063</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>9</v>
@@ -4981,19 +4981,19 @@
         <v>8816</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>3951</v>
+        <v>4769</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>15765</v>
+        <v>16121</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04586662516441167</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02055593582927214</v>
+        <v>0.02481001618322331</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.08202124420953637</v>
+        <v>0.08387215389276187</v>
       </c>
     </row>
     <row r="26">
@@ -5010,7 +5010,7 @@
         <v>80058</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>76155</v>
+        <v>76287</v>
       </c>
       <c r="F26" s="5" t="n">
         <v>81001</v>
@@ -5019,7 +5019,7 @@
         <v>0.9883632918079892</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9401784073259887</v>
+        <v>0.9418060457550776</v>
       </c>
       <c r="I26" s="6" t="n">
         <v>1</v>
@@ -5031,19 +5031,19 @@
         <v>103333</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>97259</v>
+        <v>96409</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>108185</v>
+        <v>108174</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9292007793759613</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8745815076791145</v>
+        <v>0.8669422319784936</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9728354112680214</v>
+        <v>0.9727345849064383</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>176</v>
@@ -5052,19 +5052,19 @@
         <v>183391</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>176442</v>
+        <v>176086</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>188256</v>
+        <v>187438</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9541333748355884</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9179787557904637</v>
+        <v>0.9161278461072382</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9794440641707279</v>
+        <v>0.9751899838167767</v>
       </c>
     </row>
     <row r="27">
@@ -5203,19 +5203,19 @@
         <v>7117</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2619</v>
+        <v>2585</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>14678</v>
+        <v>15121</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.03343878648994709</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01230549424027073</v>
+        <v>0.01214563434938372</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.06896563298771893</v>
+        <v>0.07104930120502043</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>26</v>
@@ -5224,19 +5224,19 @@
         <v>27245</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>17779</v>
+        <v>19121</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>38304</v>
+        <v>38750</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.09640144918775449</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.06290995714788494</v>
+        <v>0.06765771788248587</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1355340158358384</v>
+        <v>0.1371097077202741</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>32</v>
@@ -5245,19 +5245,19 @@
         <v>34361</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>24619</v>
+        <v>23635</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>47779</v>
+        <v>46136</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.06935500211712657</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.04969183759995346</v>
+        <v>0.04770577612764087</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.09643713619041558</v>
+        <v>0.09312167250635379</v>
       </c>
     </row>
     <row r="30">
@@ -5274,19 +5274,19 @@
         <v>205707</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>198146</v>
+        <v>197703</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>210205</v>
+        <v>210239</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.9665612135100529</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.931034367012281</v>
+        <v>0.9289506987949795</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.9876945057597295</v>
+        <v>0.9878543656506162</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>238</v>
@@ -5295,19 +5295,19 @@
         <v>255373</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>244314</v>
+        <v>243868</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>264839</v>
+        <v>263497</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.9035985508122455</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.8644659841641618</v>
+        <v>0.8628902922797259</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.9370900428521151</v>
+        <v>0.932342282117514</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>429</v>
@@ -5316,19 +5316,19 @@
         <v>461081</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>447663</v>
+        <v>449306</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>470823</v>
+        <v>471807</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.9306449978828735</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.9035628638095845</v>
+        <v>0.9068783274936467</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9503081624000466</v>
+        <v>0.9522942238723592</v>
       </c>
     </row>
     <row r="31">
@@ -5423,7 +5423,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>6820</v>
+        <v>6319</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.009449205874352908</v>
@@ -5432,7 +5432,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.03276764434006498</v>
+        <v>0.03036204911043089</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1</v>
@@ -5444,7 +5444,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>5502</v>
+        <v>5267</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.002715810642541552</v>
@@ -5453,7 +5453,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01542494268429382</v>
+        <v>0.01476586624932169</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>3</v>
@@ -5462,19 +5462,19 @@
         <v>2935</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>935</v>
+        <v>940</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>8040</v>
+        <v>7755</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.005196810623824464</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.001655101478899761</v>
+        <v>0.001663539653763209</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01423470742827307</v>
+        <v>0.01372884592843975</v>
       </c>
     </row>
     <row r="33">
@@ -5491,19 +5491,19 @@
         <v>28794</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>19630</v>
+        <v>20283</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>39520</v>
+        <v>39794</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.1383509899194627</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.09431828228702548</v>
+        <v>0.09745930926957216</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1898916877823085</v>
+        <v>0.1912043899500577</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>94</v>
@@ -5512,19 +5512,19 @@
         <v>100883</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>84057</v>
+        <v>84405</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>118289</v>
+        <v>117323</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.2828114612653296</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.2356401712138315</v>
+        <v>0.2366180474704128</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.3316061102570278</v>
+        <v>0.3288967900414035</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>122</v>
@@ -5533,19 +5533,19 @@
         <v>129677</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>110880</v>
+        <v>110620</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>150667</v>
+        <v>151341</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.2295832733502707</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.1963043471955203</v>
+        <v>0.1958440031636503</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.2667432327661864</v>
+        <v>0.2679371565477179</v>
       </c>
     </row>
     <row r="34">
@@ -5562,19 +5562,19 @@
         <v>177361</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>166059</v>
+        <v>165435</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>186941</v>
+        <v>186521</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.8521998042061844</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.7978979810014073</v>
+        <v>0.7948984012299906</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.8982342479245564</v>
+        <v>0.8962149964222219</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>234</v>
@@ -5583,19 +5583,19 @@
         <v>254864</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>237044</v>
+        <v>238298</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>271648</v>
+        <v>271102</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.7144727280921289</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.6645176321993236</v>
+        <v>0.6680340050594743</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.7615257867867505</v>
+        <v>0.7599936795494776</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>401</v>
@@ -5604,19 +5604,19 @@
         <v>432225</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>410988</v>
+        <v>410727</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>450868</v>
+        <v>451435</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.7652199160259048</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.7276217036019903</v>
+        <v>0.7271585269510824</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.7982251224526552</v>
+        <v>0.7992291722193098</v>
       </c>
     </row>
     <row r="35">
@@ -5708,19 +5708,19 @@
         <v>2823</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>858</v>
+        <v>847</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>7749</v>
+        <v>7348</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.002902981236648674</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.0008817959048136188</v>
+        <v>0.000870766672680199</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.007967509154130524</v>
+        <v>0.007554893005643715</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>2</v>
@@ -5732,7 +5732,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>11015</v>
+        <v>11197</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.001881532933156799</v>
@@ -5741,7 +5741,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.007310442545703327</v>
+        <v>0.007431185319937984</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>5</v>
@@ -5750,19 +5750,19 @@
         <v>5658</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>1877</v>
+        <v>1900</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>14118</v>
+        <v>13039</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.002282221047482923</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.0007571023304493666</v>
+        <v>0.0007662892711385655</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.005694277024825043</v>
+        <v>0.005258902822769631</v>
       </c>
     </row>
     <row r="37">
@@ -5779,19 +5779,19 @@
         <v>129626</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>108093</v>
+        <v>108418</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>152608</v>
+        <v>151973</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1332786859129319</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1111385035696009</v>
+        <v>0.1114729602580835</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1569077986946813</v>
+        <v>0.1562555954784756</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>341</v>
@@ -5800,19 +5800,19 @@
         <v>368579</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>334690</v>
+        <v>332624</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>402322</v>
+        <v>403333</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2446139139715547</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2221231856865319</v>
+        <v>0.2207522292084227</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2670081302055077</v>
+        <v>0.2676791437000922</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>465</v>
@@ -5821,19 +5821,19 @@
         <v>498205</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>459068</v>
+        <v>458564</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>542969</v>
+        <v>536846</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2009399439464692</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.185154978149256</v>
+        <v>0.184951712802076</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2189947807205609</v>
+        <v>0.2165251290878553</v>
       </c>
     </row>
     <row r="38">
@@ -5850,19 +5850,19 @@
         <v>840145</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>818795</v>
+        <v>818172</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>861693</v>
+        <v>862933</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.8638183328504194</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.8418667926828221</v>
+        <v>0.8412262698378625</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.8859737077621977</v>
+        <v>0.8872484422855288</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>1055</v>
@@ -5871,19 +5871,19 @@
         <v>1135363</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>1100943</v>
+        <v>1100947</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>1168388</v>
+        <v>1171487</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.7535045530952885</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.7306606401253997</v>
+        <v>0.7306634833468637</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.7754218475401248</v>
+        <v>0.7774787114524477</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1849</v>
@@ -5892,19 +5892,19 @@
         <v>1975508</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1931930</v>
+        <v>1936871</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>2016247</v>
+        <v>2015674</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.7967778350060479</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.7792015014484871</v>
+        <v>0.7811946879821439</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.8132090207168394</v>
+        <v>0.8129778150999486</v>
       </c>
     </row>
     <row r="39">
@@ -6240,19 +6240,19 @@
         <v>4710</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1241</v>
+        <v>1228</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11433</v>
+        <v>10864</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06377514456868155</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01681004806859398</v>
+        <v>0.01663028899365367</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1548185332564946</v>
+        <v>0.1471194216514075</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -6261,19 +6261,19 @@
         <v>14810</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8614</v>
+        <v>9117</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>23279</v>
+        <v>22734</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1514298503436233</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08807733860934792</v>
+        <v>0.09322070683252312</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.238026425510557</v>
+        <v>0.2324576496339345</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>19</v>
@@ -6282,19 +6282,19 @@
         <v>19520</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>12078</v>
+        <v>11955</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>29129</v>
+        <v>28127</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.113718331990893</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07036743360484771</v>
+        <v>0.06964919053117366</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1697029871194251</v>
+        <v>0.1638654234327509</v>
       </c>
     </row>
     <row r="5">
@@ -6311,19 +6311,19 @@
         <v>18015</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>10859</v>
+        <v>10965</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>26253</v>
+        <v>26837</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2439524966162343</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1470479925298144</v>
+        <v>0.1484783565826295</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3554952995752845</v>
+        <v>0.3634112291975383</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>48</v>
@@ -6332,19 +6332,19 @@
         <v>49297</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>39018</v>
+        <v>39357</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>58388</v>
+        <v>58701</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5040640981929169</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3989604563729711</v>
+        <v>0.4024239172171585</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5970158492064064</v>
+        <v>0.6002143337883493</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>64</v>
@@ -6353,19 +6353,19 @@
         <v>67313</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>53718</v>
+        <v>55378</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>79829</v>
+        <v>80912</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3921567755923163</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3129543604184302</v>
+        <v>0.3226251111341095</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4650725590427114</v>
+        <v>0.4713860000872561</v>
       </c>
     </row>
     <row r="6">
@@ -6382,19 +6382,19 @@
         <v>51123</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>41785</v>
+        <v>41734</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>58049</v>
+        <v>58735</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.6922723588150842</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5658203323424055</v>
+        <v>0.5651275584669646</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.786054674142479</v>
+        <v>0.7953461817137714</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>33</v>
@@ -6403,19 +6403,19 @@
         <v>33693</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>25602</v>
+        <v>25383</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>43590</v>
+        <v>43674</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3445060514634598</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.261774830121103</v>
+        <v>0.2595365022326825</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4457072150908254</v>
+        <v>0.4465683007110228</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>79</v>
@@ -6424,19 +6424,19 @@
         <v>84816</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>72361</v>
+        <v>70701</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>98667</v>
+        <v>98395</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4941248924167908</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4215690405500047</v>
+        <v>0.4118957337368734</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5748208982127455</v>
+        <v>0.5732352189834665</v>
       </c>
     </row>
     <row r="7">
@@ -6528,19 +6528,19 @@
         <v>8802</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3828</v>
+        <v>4153</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>15934</v>
+        <v>16809</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1317807104686451</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.05731648271011211</v>
+        <v>0.06217438434333259</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2385626677324004</v>
+        <v>0.2516659271465511</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>29</v>
@@ -6549,19 +6549,19 @@
         <v>29304</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>19885</v>
+        <v>20963</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>39017</v>
+        <v>39171</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2441040178876616</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1656411361261823</v>
+        <v>0.1746172684554123</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3250111478120909</v>
+        <v>0.3262913586246097</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>37</v>
@@ -6570,19 +6570,19 @@
         <v>38106</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>28296</v>
+        <v>27999</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>50124</v>
+        <v>50798</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2039512248867168</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1514435941614551</v>
+        <v>0.1498586519819022</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2682735916440457</v>
+        <v>0.2718816239952071</v>
       </c>
     </row>
     <row r="9">
@@ -6599,19 +6599,19 @@
         <v>33492</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>24803</v>
+        <v>25121</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>41447</v>
+        <v>41345</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.501448584555871</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3713616634245563</v>
+        <v>0.3761133746816359</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6205587644144931</v>
+        <v>0.6190312830071905</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>46</v>
@@ -6620,19 +6620,19 @@
         <v>47958</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>38069</v>
+        <v>36875</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>59806</v>
+        <v>59484</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3994909460099285</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3171081746563204</v>
+        <v>0.3071646307869133</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4981806853858437</v>
+        <v>0.4954965678996545</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>78</v>
@@ -6641,19 +6641,19 @@
         <v>81450</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>67903</v>
+        <v>67905</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>95492</v>
+        <v>95710</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.435938269806479</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3634326534500908</v>
+        <v>0.3634406104803544</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5110897857365262</v>
+        <v>0.5122595313050395</v>
       </c>
     </row>
     <row r="10">
@@ -6670,19 +6670,19 @@
         <v>24497</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>17155</v>
+        <v>17012</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>33259</v>
+        <v>32631</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3667707049754839</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2568554404286255</v>
+        <v>0.2547089040105275</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4979708066665511</v>
+        <v>0.4885540595242748</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>41</v>
@@ -6691,19 +6691,19 @@
         <v>42786</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>32847</v>
+        <v>31771</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>54407</v>
+        <v>52992</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3564050361024099</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2736094616180714</v>
+        <v>0.2646540467966577</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4532073312473834</v>
+        <v>0.4414201645413958</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>64</v>
@@ -6712,19 +6712,19 @@
         <v>67283</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>53756</v>
+        <v>53936</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>79670</v>
+        <v>81053</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3601105053068042</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2877154314912631</v>
+        <v>0.288674901940866</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4264096049378883</v>
+        <v>0.4338109222039265</v>
       </c>
     </row>
     <row r="11">
@@ -6816,19 +6816,19 @@
         <v>3585</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>892</v>
+        <v>897</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7777</v>
+        <v>8837</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.05999556689356293</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01492112006434708</v>
+        <v>0.01500842712569303</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1301665446434719</v>
+        <v>0.1478989441805463</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>16</v>
@@ -6837,19 +6837,19 @@
         <v>15661</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>9644</v>
+        <v>9327</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>23782</v>
+        <v>23372</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2020784915792375</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1244409532408098</v>
+        <v>0.1203531361953791</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3068769207979124</v>
+        <v>0.3015781533481588</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>20</v>
@@ -6858,19 +6858,19 @@
         <v>19245</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>12625</v>
+        <v>11810</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>29188</v>
+        <v>27552</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1402238267867578</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.09198909198148558</v>
+        <v>0.08605259143562241</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2126675182138955</v>
+        <v>0.2007509095125478</v>
       </c>
     </row>
     <row r="13">
@@ -6887,19 +6887,19 @@
         <v>17723</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>11571</v>
+        <v>11327</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>25272</v>
+        <v>24530</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2966260344953564</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1936519172408473</v>
+        <v>0.1895736067347054</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4229764855079388</v>
+        <v>0.4105425449987269</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>22</v>
@@ -6908,19 +6908,19 @@
         <v>20553</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>14130</v>
+        <v>13743</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>28302</v>
+        <v>28900</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.265209242211464</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1823228355731706</v>
+        <v>0.1773370127290274</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3651982159170238</v>
+        <v>0.3729084075837373</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>41</v>
@@ -6929,19 +6929,19 @@
         <v>38276</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>28771</v>
+        <v>29270</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>49330</v>
+        <v>49304</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2788862914408078</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2096328254860421</v>
+        <v>0.2132638595378087</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3594215720516864</v>
+        <v>0.3592351701843041</v>
       </c>
     </row>
     <row r="14">
@@ -6958,19 +6958,19 @@
         <v>38441</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>31322</v>
+        <v>31634</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>45205</v>
+        <v>45514</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6433783986110807</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5242191675429299</v>
+        <v>0.5294540086639642</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7565759979213356</v>
+        <v>0.7617450634672797</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>44</v>
@@ -6979,19 +6979,19 @@
         <v>41284</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>33204</v>
+        <v>33406</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>49736</v>
+        <v>49879</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5327122662092986</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4284487339506979</v>
+        <v>0.4310498495461251</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6417709149701906</v>
+        <v>0.6436149864901355</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>85</v>
@@ -7000,19 +7000,19 @@
         <v>79725</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>67765</v>
+        <v>68970</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>90478</v>
+        <v>90663</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5808898817724344</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4937434258994238</v>
+        <v>0.5025242158945177</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6592338821224644</v>
+        <v>0.6605797702711833</v>
       </c>
     </row>
     <row r="15">
@@ -7104,19 +7104,19 @@
         <v>3923</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>983</v>
+        <v>991</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9086</v>
+        <v>9400</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06625731878750762</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01660833531209246</v>
+        <v>0.01673182578870604</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1534584209153572</v>
+        <v>0.1587624629278036</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -7125,19 +7125,19 @@
         <v>8830</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4148</v>
+        <v>4418</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>16449</v>
+        <v>16723</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0739207220190264</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03472123834989539</v>
+        <v>0.03698336313448453</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1376985708289465</v>
+        <v>0.1399895621202372</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>12</v>
@@ -7146,19 +7146,19 @@
         <v>12753</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6945</v>
+        <v>7503</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>21860</v>
+        <v>21245</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07138120767043479</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03887083430459823</v>
+        <v>0.04199220945517521</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.122350120663663</v>
+        <v>0.1189082212603021</v>
       </c>
     </row>
     <row r="17">
@@ -7175,19 +7175,19 @@
         <v>5787</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2014</v>
+        <v>2678</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>11003</v>
+        <v>11342</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.09774458151862343</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03401732488794544</v>
+        <v>0.0452311751878809</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1858333391676235</v>
+        <v>0.1915664943226802</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>19</v>
@@ -7196,19 +7196,19 @@
         <v>18788</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>12182</v>
+        <v>12153</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>28250</v>
+        <v>27204</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1572721777966504</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1019785804005011</v>
+        <v>0.1017327585778297</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2364816914573614</v>
+        <v>0.2277277414910825</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>25</v>
@@ -7217,19 +7217,19 @@
         <v>24575</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>16852</v>
+        <v>16167</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>35483</v>
+        <v>33533</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1375458003220232</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.09431932021895313</v>
+        <v>0.090485923602736</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1985993116094832</v>
+        <v>0.1876866601874888</v>
       </c>
     </row>
     <row r="18">
@@ -7246,19 +7246,19 @@
         <v>49497</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>42628</v>
+        <v>42127</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>54179</v>
+        <v>53591</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.835998099693869</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.719982292978534</v>
+        <v>0.7115172139334383</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.915073304882949</v>
+        <v>0.9051522771960514</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>88</v>
@@ -7267,19 +7267,19 @@
         <v>91841</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>82191</v>
+        <v>82335</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>99653</v>
+        <v>100008</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.7688071001843232</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.6880294294476168</v>
+        <v>0.6892330620659097</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8342020905543124</v>
+        <v>0.837177600752529</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>133</v>
@@ -7288,19 +7288,19 @@
         <v>141338</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>129129</v>
+        <v>129420</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>151060</v>
+        <v>151821</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.791072992007542</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.7227412338094198</v>
+        <v>0.7243681598105258</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.8454863863983653</v>
+        <v>0.8497469561644314</v>
       </c>
     </row>
     <row r="19">
@@ -7442,7 +7442,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>5069</v>
+        <v>5108</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01382529115160132</v>
@@ -7451,7 +7451,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.06997955741711512</v>
+        <v>0.07052963716172568</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1</v>
@@ -7463,7 +7463,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>4930</v>
+        <v>4399</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01009735258145231</v>
@@ -7472,7 +7472,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.0573578153038396</v>
+        <v>0.05117785160833196</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>2</v>
@@ -7484,7 +7484,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>6675</v>
+        <v>5875</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.0118021705628367</v>
@@ -7493,7 +7493,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.04214320558843945</v>
+        <v>0.03709546283522053</v>
       </c>
     </row>
     <row r="22">
@@ -7510,7 +7510,7 @@
         <v>71429</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>67361</v>
+        <v>67322</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>72430</v>
@@ -7519,7 +7519,7 @@
         <v>0.9861747088483986</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9300204425828847</v>
+        <v>0.9294703628382744</v>
       </c>
       <c r="I22" s="6" t="n">
         <v>1</v>
@@ -7531,7 +7531,7 @@
         <v>85085</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>81023</v>
+        <v>81554</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>85953</v>
@@ -7540,7 +7540,7 @@
         <v>0.9899026474185477</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9426421846961618</v>
+        <v>0.948822148391668</v>
       </c>
       <c r="P22" s="6" t="n">
         <v>1</v>
@@ -7552,7 +7552,7 @@
         <v>156514</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>151708</v>
+        <v>152508</v>
       </c>
       <c r="T22" s="5" t="n">
         <v>158383</v>
@@ -7561,7 +7561,7 @@
         <v>0.9881978294371633</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9578567944115609</v>
+        <v>0.9629045371647796</v>
       </c>
       <c r="W22" s="6" t="n">
         <v>1</v>
@@ -7659,7 +7659,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4311</v>
+        <v>4764</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.01534184838270241</v>
@@ -7668,7 +7668,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.06976198336264555</v>
+        <v>0.07708316456923379</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>5</v>
@@ -7677,19 +7677,19 @@
         <v>5021</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1920</v>
+        <v>1943</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>10923</v>
+        <v>11148</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.07345053803171388</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02809370036632858</v>
+        <v>0.02842192769931064</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1597882541722664</v>
+        <v>0.1630797978537475</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>6</v>
@@ -7698,19 +7698,19 @@
         <v>5969</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>2278</v>
+        <v>2082</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>11972</v>
+        <v>11435</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.0458595344254402</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01750018277195615</v>
+        <v>0.01599218289869882</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.09198146887181434</v>
+        <v>0.08784829263957412</v>
       </c>
     </row>
     <row r="25">
@@ -7727,19 +7727,19 @@
         <v>14975</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>9082</v>
+        <v>8913</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>22832</v>
+        <v>23175</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.242306590928936</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1469430111383057</v>
+        <v>0.144208407544545</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.36942557153387</v>
+        <v>0.3749865846519378</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>17</v>
@@ -7748,19 +7748,19 @@
         <v>16706</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>10484</v>
+        <v>10861</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>24344</v>
+        <v>24887</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2443867454704247</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1533690438317494</v>
+        <v>0.1588756381301993</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3561128906422</v>
+        <v>0.3640598290283219</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>31</v>
@@ -7769,19 +7769,19 @@
         <v>31681</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>22390</v>
+        <v>23267</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>41625</v>
+        <v>42471</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2433990523766294</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1720177531109742</v>
+        <v>0.1787578759178013</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3197933570706631</v>
+        <v>0.326292862382241</v>
       </c>
     </row>
     <row r="26">
@@ -7798,19 +7798,19 @@
         <v>45880</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>37300</v>
+        <v>37464</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>51877</v>
+        <v>51816</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7423515606883616</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6035337413072318</v>
+        <v>0.6061906247695028</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8393855365927968</v>
+        <v>0.8384040692110579</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>43</v>
@@ -7819,19 +7819,19 @@
         <v>46632</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>38470</v>
+        <v>37693</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>54005</v>
+        <v>53140</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6821627164978614</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5627571396851374</v>
+        <v>0.5513944448485206</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7900242535682795</v>
+        <v>0.7773603431928984</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>89</v>
@@ -7840,19 +7840,19 @@
         <v>92512</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>81326</v>
+        <v>81468</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>101581</v>
+        <v>102372</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7107414131979304</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6248044467164493</v>
+        <v>0.6258995806302386</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7804208312500526</v>
+        <v>0.7864973624117336</v>
       </c>
     </row>
     <row r="27">
@@ -7944,19 +7944,19 @@
         <v>11782</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>6364</v>
+        <v>6318</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>20423</v>
+        <v>19359</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1093506205023117</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.05906435358508096</v>
+        <v>0.05864419745405731</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1895588610208057</v>
+        <v>0.1796751979883066</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>29</v>
@@ -7965,19 +7965,19 @@
         <v>31690</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>22660</v>
+        <v>22244</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>44757</v>
+        <v>44158</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1782725883818378</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1274745034641398</v>
+        <v>0.1251341641365464</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2517813274372169</v>
+        <v>0.248409160872418</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>40</v>
@@ -7986,19 +7986,19 @@
         <v>43472</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>32500</v>
+        <v>32600</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>58097</v>
+        <v>57592</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1522633829285734</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1138347923017065</v>
+        <v>0.1141852991613629</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2034888226800571</v>
+        <v>0.201720169079195</v>
       </c>
     </row>
     <row r="29">
@@ -8015,19 +8015,19 @@
         <v>33370</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>24252</v>
+        <v>24298</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>45674</v>
+        <v>44935</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3097187605106632</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2250888445382098</v>
+        <v>0.2255196465481569</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4239173790795264</v>
+        <v>0.4170598102564831</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>65</v>
@@ -8036,19 +8036,19 @@
         <v>66035</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>52143</v>
+        <v>53015</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>78564</v>
+        <v>79078</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3714784624696379</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2933299980882584</v>
+        <v>0.2982315189753904</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4419606082393887</v>
+        <v>0.4448512465686703</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>94</v>
@@ -8057,19 +8057,19 @@
         <v>99405</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>84226</v>
+        <v>82772</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>115507</v>
+        <v>115591</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3481720940300257</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2950083069879769</v>
+        <v>0.2899133408146102</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4045725452861863</v>
+        <v>0.4048646476478883</v>
       </c>
     </row>
     <row r="30">
@@ -8086,19 +8086,19 @@
         <v>62591</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>51675</v>
+        <v>51110</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>73610</v>
+        <v>72993</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.5809306189870251</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.4796209354338775</v>
+        <v>0.4743710228969423</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.6832085142624457</v>
+        <v>0.6774831593066915</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>76</v>
@@ -8107,19 +8107,19 @@
         <v>80038</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>66038</v>
+        <v>65746</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>93835</v>
+        <v>93845</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.4502489491485243</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3714929370612855</v>
+        <v>0.3698492686358669</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.5278633822479155</v>
+        <v>0.5279246730935552</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>130</v>
@@ -8128,19 +8128,19 @@
         <v>142628</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>124809</v>
+        <v>125100</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>159440</v>
+        <v>160700</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.4995645230414009</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.4371501424257858</v>
+        <v>0.4381725992328263</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.5584480455746941</v>
+        <v>0.5628623868510624</v>
       </c>
     </row>
     <row r="31">
@@ -8245,19 +8245,19 @@
         <v>4603</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1129</v>
+        <v>1329</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>11366</v>
+        <v>11631</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01430173929728143</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.00350715684708974</v>
+        <v>0.004130707933081919</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.03531676849032878</v>
+        <v>0.03614145337997422</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>4</v>
@@ -8266,19 +8266,19 @@
         <v>4603</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1101</v>
+        <v>1340</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>10774</v>
+        <v>10902</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.00849856760139716</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.002032727718544824</v>
+        <v>0.002473953661141448</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01989455915478896</v>
+        <v>0.0201301978528538</v>
       </c>
     </row>
     <row r="33">
@@ -8295,19 +8295,19 @@
         <v>9116</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>4110</v>
+        <v>4762</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>16307</v>
+        <v>16678</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.0414828623708773</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.01870398826818746</v>
+        <v>0.02167218161619884</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.07420776115602003</v>
+        <v>0.07589466295186477</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>31</v>
@@ -8316,19 +8316,19 @@
         <v>33502</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>23718</v>
+        <v>23369</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>45106</v>
+        <v>45973</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.1041022759372282</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.0737004615835001</v>
+        <v>0.07261524568234787</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.1401610525658855</v>
+        <v>0.1428526672519005</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>40</v>
@@ -8337,19 +8337,19 @@
         <v>42618</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>30702</v>
+        <v>30750</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>56750</v>
+        <v>56196</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.07869339378188123</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.05669159673657932</v>
+        <v>0.05677988026477056</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1047887695185467</v>
+        <v>0.1037645181875639</v>
       </c>
     </row>
     <row r="34">
@@ -8366,19 +8366,19 @@
         <v>210635</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>203444</v>
+        <v>203073</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>215641</v>
+        <v>214989</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.9585171376291227</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.9257922388439801</v>
+        <v>0.9241053370481354</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.9812960117318125</v>
+        <v>0.9783278183838012</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>269</v>
@@ -8387,19 +8387,19 @@
         <v>283714</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>271218</v>
+        <v>271150</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>293701</v>
+        <v>294382</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.8815959847654903</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.8427646159232244</v>
+        <v>0.8425539068216098</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.9126265710740138</v>
+        <v>0.9147440107605684</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>469</v>
@@ -8408,19 +8408,19 @@
         <v>494349</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>478723</v>
+        <v>479641</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>506350</v>
+        <v>506447</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.9128080386167217</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.8839533404269558</v>
+        <v>0.8856500238332918</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.9349662865951691</v>
+        <v>0.9351460396660563</v>
       </c>
     </row>
     <row r="35">
@@ -8512,19 +8512,19 @@
         <v>33749</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>23772</v>
+        <v>22797</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>46940</v>
+        <v>46396</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.04678741649205276</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.03295573276080894</v>
+        <v>0.0316041388614272</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.06507543206804348</v>
+        <v>0.06432096322304294</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>106</v>
@@ -8533,19 +8533,19 @@
         <v>109919</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>92420</v>
+        <v>89956</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>134262</v>
+        <v>129879</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1028532741204149</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.08647852923290802</v>
+        <v>0.08417305082695294</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1256315125834086</v>
+        <v>0.1215302400010904</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>138</v>
@@ -8554,19 +8554,19 @@
         <v>143668</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>122347</v>
+        <v>120501</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>168219</v>
+        <v>168124</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.08026055684421203</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.06834972448228495</v>
+        <v>0.06731843301774652</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.09397610325646469</v>
+        <v>0.09392282644341349</v>
       </c>
     </row>
     <row r="37">
@@ -8583,19 +8583,19 @@
         <v>133480</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>114005</v>
+        <v>113459</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>157648</v>
+        <v>157883</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1850493678887205</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.15805048906169</v>
+        <v>0.1572930511131347</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2185545931172944</v>
+        <v>0.2188803446138191</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>249</v>
@@ -8604,19 +8604,19 @@
         <v>253708</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>227094</v>
+        <v>226176</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>283571</v>
+        <v>281989</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2373986428072218</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2124957432226658</v>
+        <v>0.2116362439856689</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2653418967311512</v>
+        <v>0.2638614878087482</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>375</v>
@@ -8625,19 +8625,19 @@
         <v>387188</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>353915</v>
+        <v>353339</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>422530</v>
+        <v>425276</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2163035874940999</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1977154936080095</v>
+        <v>0.1973940367893309</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2360478229103545</v>
+        <v>0.2375817217244287</v>
       </c>
     </row>
     <row r="38">
@@ -8654,19 +8654,19 @@
         <v>554091</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>528457</v>
+        <v>527244</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>575840</v>
+        <v>574430</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.7681632156192267</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.7326243348054727</v>
+        <v>0.7309426515607215</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.7983137543631605</v>
+        <v>0.7963592603598273</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>684</v>
@@ -8675,19 +8675,19 @@
         <v>705073</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>671349</v>
+        <v>671802</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>733837</v>
+        <v>735957</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.6597480830723633</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.6281924516202821</v>
+        <v>0.6286157651145065</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.6866633445758615</v>
+        <v>0.6886470139699518</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1209</v>
@@ -8696,19 +8696,19 @@
         <v>1259164</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1219933</v>
+        <v>1221133</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1294983</v>
+        <v>1297658</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.703435855661688</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.6815191239247702</v>
+        <v>0.68218969817304</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.7234463077203298</v>
+        <v>0.7249407768844675</v>
       </c>
     </row>
     <row r="39">
@@ -9081,7 +9081,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>3626</v>
+        <v>4336</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07107862070012813</v>
@@ -9090,7 +9090,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2822785971832698</v>
+        <v>0.3375277116289939</v>
       </c>
     </row>
     <row r="5">
@@ -9131,16 +9131,16 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>2535</v>
+        <v>2481</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.06142419742943074</v>
+        <v>0.06142419742943075</v>
       </c>
       <c r="O5" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2755542077484168</v>
+        <v>0.2697231815669783</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2</v>
@@ -9152,7 +9152,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>4582</v>
+        <v>4448</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1111628132431895</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3566890184224525</v>
+        <v>0.3462070332764414</v>
       </c>
     </row>
     <row r="6">
@@ -9199,16 +9199,16 @@
         <v>8634</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>6664</v>
+        <v>6718</v>
       </c>
       <c r="M6" s="5" t="n">
         <v>9199</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.9385758025705694</v>
+        <v>0.9385758025705692</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.7244457922515832</v>
+        <v>0.7302768184330216</v>
       </c>
       <c r="P6" s="6" t="n">
         <v>1</v>
@@ -9220,19 +9220,19 @@
         <v>10506</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>7099</v>
+        <v>6957</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>12252</v>
+        <v>12291</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.8177585660566824</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5525895820886517</v>
+        <v>0.5415280838356927</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9536951488501217</v>
+        <v>0.9566962545434959</v>
       </c>
     </row>
     <row r="7">
@@ -9327,16 +9327,16 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>6303</v>
+        <v>6305</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.2384574453249661</v>
+        <v>0.2384574453249662</v>
       </c>
       <c r="H8" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8351785143406404</v>
+        <v>0.8354832585915438</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>4</v>
@@ -9345,19 +9345,19 @@
         <v>4256</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>942</v>
+        <v>1145</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>9127</v>
+        <v>9611</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1323286241207873</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02930321300709954</v>
+        <v>0.0356085931398</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2837735117058331</v>
+        <v>0.2988408379225502</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>5</v>
@@ -9366,19 +9366,19 @@
         <v>6055</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1993</v>
+        <v>2111</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>12878</v>
+        <v>12799</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.1524983019124436</v>
+        <v>0.1524983019124437</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.05020396435597565</v>
+        <v>0.05315492055293362</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3243184085288929</v>
+        <v>0.3223209311685992</v>
       </c>
     </row>
     <row r="9">
@@ -9398,16 +9398,16 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6535</v>
+        <v>7547</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4387727683748075</v>
+        <v>0.4387727683748076</v>
       </c>
       <c r="H9" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.8658540652161837</v>
+        <v>1</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>12</v>
@@ -9416,19 +9416,19 @@
         <v>12381</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>7294</v>
+        <v>7348</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>18674</v>
+        <v>19050</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.38495465575268</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2267918395238726</v>
+        <v>0.2284782136258161</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5806211923655449</v>
+        <v>0.5923023110214172</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>14</v>
@@ -9437,19 +9437,19 @@
         <v>15692</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>9056</v>
+        <v>9706</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>23158</v>
+        <v>22486</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3951827349740163</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2280746056615972</v>
+        <v>0.2444234123808441</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5832143463626883</v>
+        <v>0.5662835004596635</v>
       </c>
     </row>
     <row r="10">
@@ -9472,7 +9472,7 @@
         <v>5843</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.3227697863002263</v>
+        <v>0.3227697863002264</v>
       </c>
       <c r="H10" s="6" t="n">
         <v>0</v>
@@ -9487,19 +9487,19 @@
         <v>15525</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>10178</v>
+        <v>9915</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>22085</v>
+        <v>21433</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4827167201265328</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3164474502516557</v>
+        <v>0.3082833359131629</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6866829066570872</v>
+        <v>0.6664063280230474</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>18</v>
@@ -9508,19 +9508,19 @@
         <v>17961</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>11348</v>
+        <v>11748</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>25711</v>
+        <v>25300</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.4523189631135399</v>
+        <v>0.4523189631135401</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2857882402945541</v>
+        <v>0.2958543997931853</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.647492328852061</v>
+        <v>0.6371466926958874</v>
       </c>
     </row>
     <row r="11">
@@ -9612,19 +9612,19 @@
         <v>3601</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1031</v>
+        <v>1043</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6436</v>
+        <v>6437</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.4624340982229901</v>
+        <v>0.46243409822299</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1323330462279668</v>
+        <v>0.1339057024751067</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8263822775447667</v>
+        <v>0.8264776555861084</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1</v>
@@ -9636,7 +9636,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>4671</v>
+        <v>3645</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.09000066230358632</v>
@@ -9645,7 +9645,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4557267904683449</v>
+        <v>0.3555853470100874</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>4</v>
@@ -9654,19 +9654,19 @@
         <v>4524</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1210</v>
+        <v>1222</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>9040</v>
+        <v>8844</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2508066841911761</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.06709716143521932</v>
+        <v>0.06773797714626326</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5011739394500316</v>
+        <v>0.4903187511026881</v>
       </c>
     </row>
     <row r="13">
@@ -9686,7 +9686,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6031</v>
+        <v>5261</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3156116413275348</v>
@@ -9695,7 +9695,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7744466683332694</v>
+        <v>0.6755624734082193</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>6</v>
@@ -9704,19 +9704,19 @@
         <v>4925</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2054</v>
+        <v>2319</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>7814</v>
+        <v>7585</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4804866315589835</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2004319896364175</v>
+        <v>0.226200033711088</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7623438999445469</v>
+        <v>0.7400059514162001</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>8</v>
@@ -9725,19 +9725,19 @@
         <v>7383</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3554</v>
+        <v>3735</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>11961</v>
+        <v>11324</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4092983634529695</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.197048334238221</v>
+        <v>0.2070478446459967</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.663086264507635</v>
+        <v>0.627794570567264</v>
       </c>
     </row>
     <row r="14">
@@ -9757,7 +9757,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>4893</v>
+        <v>4866</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2219542604494751</v>
@@ -9766,7 +9766,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6283350443129948</v>
+        <v>0.6247972171087173</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>7</v>
@@ -9775,19 +9775,19 @@
         <v>4403</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1820</v>
+        <v>2096</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>7304</v>
+        <v>7333</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4295127061374302</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1775986156974668</v>
+        <v>0.204448044491651</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7125888827398327</v>
+        <v>0.7153856501342499</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>9</v>
@@ -9796,19 +9796,19 @@
         <v>6131</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3075</v>
+        <v>2869</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>9948</v>
+        <v>10073</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3398949523558543</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1704953076277518</v>
+        <v>0.1590799073362978</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5514903115019602</v>
+        <v>0.5584054666385536</v>
       </c>
     </row>
     <row r="15">
@@ -9913,19 +9913,19 @@
         <v>4331</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>896</v>
+        <v>938</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>11120</v>
+        <v>10514</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1160098604193432</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02400004706932934</v>
+        <v>0.02511790843697252</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2978174573999326</v>
+        <v>0.2816004261823088</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3</v>
@@ -9934,19 +9934,19 @@
         <v>4331</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>907</v>
+        <v>992</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>11687</v>
+        <v>11802</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07673295551177035</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01607029731134837</v>
+        <v>0.01756550491106223</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.207029792015441</v>
+        <v>0.2090768963402229</v>
       </c>
     </row>
     <row r="17">
@@ -9976,19 +9976,19 @@
         <v>16164</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>9740</v>
+        <v>10241</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>22155</v>
+        <v>22835</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4329230497504286</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2608749489465239</v>
+        <v>0.2742951359861856</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.59338049406758</v>
+        <v>0.6115999024354168</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>15</v>
@@ -9997,19 +9997,19 @@
         <v>16164</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>9193</v>
+        <v>10188</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>24326</v>
+        <v>24747</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.2863503584647072</v>
+        <v>0.2863503584647071</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.162847925160649</v>
+        <v>0.1804832123763451</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4309457291962454</v>
+        <v>0.4384036078692824</v>
       </c>
     </row>
     <row r="18">
@@ -10039,19 +10039,19 @@
         <v>16841</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>11149</v>
+        <v>10347</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>23504</v>
+        <v>22782</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4510670898302283</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2986160742302721</v>
+        <v>0.2771287859704341</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.629503624496247</v>
+        <v>0.6101737184465156</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>28</v>
@@ -10060,19 +10060,19 @@
         <v>35953</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>26457</v>
+        <v>26475</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>43568</v>
+        <v>43306</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.6369166860235225</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4686873046596518</v>
+        <v>0.469004201425381</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.7718079185566361</v>
+        <v>0.7671671257187578</v>
       </c>
     </row>
     <row r="19">
@@ -10383,7 +10383,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6246</v>
+        <v>4425</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.05860484094769226</v>
@@ -10392,7 +10392,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3367778046241798</v>
+        <v>0.2385971172370872</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1</v>
@@ -10404,16 +10404,16 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>5535</v>
+        <v>5587</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.05498242001393162</v>
+        <v>0.05498242001393161</v>
       </c>
       <c r="O24" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2580910774070401</v>
+        <v>0.2605242241105028</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>2</v>
@@ -10425,7 +10425,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>6710</v>
+        <v>7546</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.05666231502412539</v>
@@ -10434,7 +10434,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1677773633032092</v>
+        <v>0.1887000092395084</v>
       </c>
     </row>
     <row r="25">
@@ -10451,19 +10451,19 @@
         <v>11526</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>7487</v>
+        <v>7156</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>15098</v>
+        <v>15150</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.6215037071660374</v>
+        <v>0.6215037071660375</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4036784200541623</v>
+        <v>0.385849676832168</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.8140967384789664</v>
+        <v>0.8168696307204651</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>20</v>
@@ -10472,19 +10472,19 @@
         <v>14794</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>10164</v>
+        <v>10619</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>17870</v>
+        <v>18149</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.6898542617058863</v>
+        <v>0.689854261705886</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.473956332820803</v>
+        <v>0.495194120306733</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.8332979019301224</v>
+        <v>0.8462960576496686</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>32</v>
@@ -10493,19 +10493,19 @@
         <v>26320</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>20661</v>
+        <v>20878</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>31536</v>
+        <v>31516</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.6581567429428565</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.516648139109066</v>
+        <v>0.5220748532858106</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.7885705889031339</v>
+        <v>0.788070873767133</v>
       </c>
     </row>
     <row r="26">
@@ -10522,19 +10522,19 @@
         <v>5933</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2654</v>
+        <v>2514</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>10096</v>
+        <v>10468</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3198914518862704</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1430846134572334</v>
+        <v>0.1355718741288688</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5443725475048345</v>
+        <v>0.5644373261201679</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>7</v>
@@ -10543,19 +10543,19 @@
         <v>5472</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2685</v>
+        <v>2299</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>10046</v>
+        <v>9607</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.2551633182801823</v>
+        <v>0.2551633182801822</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1252207278490953</v>
+        <v>0.1071868875231057</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4684424545622028</v>
+        <v>0.4479660676166001</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>14</v>
@@ -10564,19 +10564,19 @@
         <v>11405</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6936</v>
+        <v>6546</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>17036</v>
+        <v>16817</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2851809420330181</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1734350032186102</v>
+        <v>0.1636813857066557</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4259900808576756</v>
+        <v>0.4205229786658383</v>
       </c>
     </row>
     <row r="27">
@@ -10689,19 +10689,19 @@
         <v>4314</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2069</v>
+        <v>2075</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>6538</v>
+        <v>6533</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.5927844525199811</v>
+        <v>0.5927844525199812</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2842641255770979</v>
+        <v>0.2851560896109456</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.8984711374751876</v>
+        <v>0.8977471878686076</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>7</v>
@@ -10710,19 +10710,19 @@
         <v>5446</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2502</v>
+        <v>2659</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>8155</v>
+        <v>8105</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.5630867785681157</v>
+        <v>0.5630867785681158</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2587200384633</v>
+        <v>0.2749505203584381</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.8432026935642707</v>
+        <v>0.8380281329954019</v>
       </c>
     </row>
     <row r="29">
@@ -10755,16 +10755,16 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2856</v>
+        <v>3508</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.09505718814438441</v>
+        <v>0.09505718814438439</v>
       </c>
       <c r="O29" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3924509141731068</v>
+        <v>0.4820227722019484</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1</v>
@@ -10776,7 +10776,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>3692</v>
+        <v>3896</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.07152400870435942</v>
@@ -10785,7 +10785,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3817483828686281</v>
+        <v>0.40282775178568</v>
       </c>
     </row>
     <row r="30">
@@ -10823,19 +10823,19 @@
         <v>2272</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>4551</v>
+        <v>4559</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3121583593356344</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.09912472846022716</v>
+        <v>0.09840518820778379</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.6253615249340165</v>
+        <v>0.6265319916228422</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>4</v>
@@ -10844,19 +10844,19 @@
         <v>3534</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>846</v>
+        <v>1347</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>6797</v>
+        <v>6295</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3653892127275247</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.08750790923562153</v>
+        <v>0.1392775269403484</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.7027630379762527</v>
+        <v>0.6508949885961894</v>
       </c>
     </row>
     <row r="31">
@@ -10998,7 +10998,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>5876</v>
+        <v>6558</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.01090147628133998</v>
@@ -11007,7 +11007,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.04913615449327347</v>
+        <v>0.0548402792046614</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>19</v>
@@ -11016,19 +11016,19 @@
         <v>17967</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>11333</v>
+        <v>10661</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>27619</v>
+        <v>26794</v>
       </c>
       <c r="N33" s="6" t="n">
-        <v>0.09627244847411788</v>
+        <v>0.09627244847411789</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.06072305018737301</v>
+        <v>0.05712129169851547</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.1479862882062875</v>
+        <v>0.1435687654586659</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>20</v>
@@ -11037,19 +11037,19 @@
         <v>19271</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>11815</v>
+        <v>11548</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>28602</v>
+        <v>28656</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.06293380851562946</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.03858483882284881</v>
+        <v>0.03771320168146969</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.09340782084447606</v>
+        <v>0.09358425725706414</v>
       </c>
     </row>
     <row r="34">
@@ -11066,16 +11066,16 @@
         <v>118276</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>113704</v>
+        <v>113022</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>119580</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.98909852371866</v>
+        <v>0.9890985237186599</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.9508638455067281</v>
+        <v>0.9451597207953387</v>
       </c>
       <c r="I34" s="6" t="n">
         <v>1</v>
@@ -11087,19 +11087,19 @@
         <v>168663</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>159011</v>
+        <v>159836</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>175297</v>
+        <v>175969</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.9037275515258821</v>
+        <v>0.903727551525882</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.8520137117937119</v>
+        <v>0.8564312345413342</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.9392769498126267</v>
+        <v>0.9428787083014847</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>297</v>
@@ -11108,19 +11108,19 @@
         <v>286939</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>277608</v>
+        <v>277554</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>294395</v>
+        <v>294662</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.9370661914843705</v>
+        <v>0.9370661914843708</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.9065921791555255</v>
+        <v>0.9064157427429355</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.961415161177151</v>
+        <v>0.9622867983185301</v>
       </c>
     </row>
     <row r="35">
@@ -11212,19 +11212,19 @@
         <v>8533</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>3837</v>
+        <v>3436</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>17459</v>
+        <v>17194</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.04391767478005828</v>
+        <v>0.04391767478005827</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.01974932069148804</v>
+        <v>0.01768625699519846</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.0898574223901214</v>
+        <v>0.08848877305782256</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>15</v>
@@ -11233,19 +11233,19 @@
         <v>15003</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>8492</v>
+        <v>8386</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>25284</v>
+        <v>25999</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.04780490547651343</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.02705806184882593</v>
+        <v>0.02672102148487447</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.08056411779657506</v>
+        <v>0.08284421748032682</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>22</v>
@@ -11254,19 +11254,19 @@
         <v>23536</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>15026</v>
+        <v>14533</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>34869</v>
+        <v>34775</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.04631850036105852</v>
+        <v>0.04631850036105851</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.02957043469407707</v>
+        <v>0.02860092669780339</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.06862160593500231</v>
+        <v>0.06843549701311333</v>
       </c>
     </row>
     <row r="37">
@@ -11283,19 +11283,19 @@
         <v>19462</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>12333</v>
+        <v>12186</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>31239</v>
+        <v>29914</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1001644284596449</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.06347409780000399</v>
+        <v>0.06271830731559232</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1607777089989164</v>
+        <v>0.1539581855288241</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>74</v>
@@ -11304,19 +11304,19 @@
         <v>67488</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>54300</v>
+        <v>54417</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>84216</v>
+        <v>82989</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2150429473871673</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1730198134906261</v>
+        <v>0.1733942125346375</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2683463700299828</v>
+        <v>0.2644351166411036</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>92</v>
@@ -11325,19 +11325,19 @@
         <v>86950</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>71128</v>
+        <v>69536</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>104575</v>
+        <v>104553</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1711155266798063</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1399781382658989</v>
+        <v>0.1368452914648179</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2058015072343335</v>
+        <v>0.2057579458829266</v>
       </c>
     </row>
     <row r="38">
@@ -11354,19 +11354,19 @@
         <v>166307</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>153298</v>
+        <v>154574</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>174744</v>
+        <v>175496</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.8559178967602967</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.788966446064601</v>
+        <v>0.7955366852083635</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.8993409094311992</v>
+        <v>0.903213900286048</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>277</v>
@@ -11375,19 +11375,19 @@
         <v>231344</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>216130</v>
+        <v>214403</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>246109</v>
+        <v>245920</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.7371521471363193</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.688673919947157</v>
+        <v>0.6831715592026826</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.7841972371427665</v>
+        <v>0.7835978202494517</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>417</v>
@@ -11396,19 +11396,19 @@
         <v>397651</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>379014</v>
+        <v>377336</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>417003</v>
+        <v>416230</v>
       </c>
       <c r="U38" s="6" t="n">
-        <v>0.7825659729591351</v>
+        <v>0.782565972959135</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.7458894708587922</v>
+        <v>0.742586320054286</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.8206515409510025</v>
+        <v>0.8191303291637452</v>
       </c>
     </row>
     <row r="39">
